--- a/public/template/润滑保养成本.xlsx
+++ b/public/template/润滑保养成本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="600" windowWidth="20175" windowHeight="7200"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>物料编号</t>
   </si>
@@ -125,16 +125,48 @@
   </si>
   <si>
     <t>SHC 629;VG150;1×208L\美孚</t>
+  </si>
+  <si>
+    <t>Fe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘度最小值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘度最大值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,26 +204,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,17 +252,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -250,74 +280,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -326,7 +293,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="535353"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -607,270 +574,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="47.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="47.85546875" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="47.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>10209358</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="3">
         <v>20.56</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="F3" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J3" s="4">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L3" s="4">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>10209348</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>21.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="F4" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L4" s="4">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>10209351</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="F5" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>10209286</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>17.010000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="F6" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L6" s="4">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>10209288</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>18.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="F7" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H7" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L7" s="4">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>10209289</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>18.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="F8" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L8" s="4">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>11102440</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+      <c r="F9" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10209398</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="F10" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>13</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>98.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
+      <c r="F11" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L11" s="4">
+        <v>11</v>
+      </c>
+      <c r="M11" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10209315</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>98.89</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="F12" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>13</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L12" s="4">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11249919</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>14.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5">
-        <v>10061964</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>14.03</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>11249923</v>
+        <v>10061964</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>13.98</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>11249924</v>
+        <v>11249923</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
@@ -878,16 +1153,24 @@
       <c r="E15" s="3">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>10889994</v>
+        <v>11249924</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -895,91 +1178,164 @@
       <c r="E16" s="3">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>10889996</v>
+        <v>10889994</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3">
-        <v>13.64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>12.95</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>11249907</v>
+        <v>10889996</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="3">
+        <v>13.64</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>10705085</v>
+        <v>11249907</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="6">
-        <v>15.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>15.25</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>11249914</v>
+        <v>10705085</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="6">
+        <v>15.11</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>11249914</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6">
         <v>34.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>10209438</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>121.5</v>
       </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/template/润滑保养成本.xlsx
+++ b/public/template/润滑保养成本.xlsx
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -596,102 +596,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10209358</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
+      <c r="E2" s="3">
+        <v>20.56</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J2" s="4">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L2" s="4">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>44</v>
+      <c r="M2" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>10209358</v>
+        <v>10209348</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
-        <v>20.56</v>
+        <v>21.34</v>
       </c>
       <c r="F3" s="4">
         <v>2.31</v>
@@ -720,19 +720,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>10209348</v>
+        <v>10209351</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3">
-        <v>21.34</v>
+        <v>21.7</v>
       </c>
       <c r="F4" s="4">
         <v>2.31</v>
@@ -761,19 +761,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>10209351</v>
+        <v>10209286</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>21.7</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="F5" s="4">
         <v>2.31</v>
@@ -802,19 +802,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10209286</v>
+        <v>10209288</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>17.010000000000002</v>
+        <v>18.61</v>
       </c>
       <c r="F6" s="4">
         <v>2.31</v>
@@ -843,19 +843,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>10209288</v>
+        <v>10209289</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>18.61</v>
+        <v>18.77</v>
       </c>
       <c r="F7" s="4">
         <v>2.31</v>
@@ -884,19 +884,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>10209289</v>
+        <v>11102440</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>18.77</v>
+        <v>12.6</v>
       </c>
       <c r="F8" s="4">
         <v>2.31</v>
@@ -925,19 +925,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>11102440</v>
+        <v>10209398</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3">
-        <v>12.6</v>
+        <v>24.3</v>
       </c>
       <c r="F9" s="4">
         <v>2.31</v>
@@ -965,20 +965,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10209398</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3">
-        <v>24.3</v>
+        <v>98.03</v>
       </c>
       <c r="F10" s="4">
         <v>2.31</v>
@@ -1006,20 +1006,20 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" s="1">
+        <v>10209315</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3">
-        <v>98.03</v>
+        <v>98.89</v>
       </c>
       <c r="F11" s="4">
         <v>2.31</v>
@@ -1047,61 +1047,45 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10209315</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
+      <c r="A12" s="5">
+        <v>11249919</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="3">
-        <v>98.89</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.31</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5.68</v>
-      </c>
-      <c r="H12" s="4">
-        <v>7.56</v>
-      </c>
-      <c r="I12" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J12" s="4">
-        <v>13</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="L12" s="4">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4">
-        <v>16</v>
-      </c>
+        <v>14.03</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>11249919</v>
+        <v>10061964</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3">
-        <v>14.03</v>
+        <v>13.98</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1114,19 +1098,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>10061964</v>
+        <v>11249923</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3">
-        <v>13.98</v>
+        <v>12.95</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1139,13 +1123,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>11249923</v>
+        <v>11249924</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
@@ -1164,13 +1148,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>11249924</v>
+        <v>10889994</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -1189,19 +1173,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>10889994</v>
+        <v>10889996</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3">
-        <v>12.95</v>
+        <v>13.64</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1214,19 +1198,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>10889996</v>
+        <v>11249907</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
-        <v>13.64</v>
+      <c r="E18" s="6">
+        <v>15.25</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1239,19 +1223,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>11249907</v>
+        <v>10705085</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="6">
-        <v>15.25</v>
+        <v>15.11</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1264,19 +1248,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>10705085</v>
+        <v>11249914</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="6">
-        <v>15.11</v>
+        <v>34.53</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1288,20 +1272,20 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>11249914</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="1">
+        <v>10209438</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="6">
-        <v>34.53</v>
+        <v>121.5</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1312,31 +1296,6 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>10209438</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6">
-        <v>121.5</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/public/template/润滑保养成本.xlsx
+++ b/public/template/润滑保养成本.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -630,10 +630,10 @@
         <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>1.26</v>
       </c>
       <c r="L2" s="4">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4">
         <v>11</v>
-      </c>
-      <c r="M2" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>1.26</v>
       </c>
       <c r="L3" s="4">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4">
         <v>11</v>
-      </c>
-      <c r="M3" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
         <v>1.26</v>
       </c>
       <c r="L4" s="4">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4">
         <v>11</v>
-      </c>
-      <c r="M4" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -794,10 +794,10 @@
         <v>1.26</v>
       </c>
       <c r="L5" s="4">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4">
         <v>11</v>
-      </c>
-      <c r="M5" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>1.26</v>
       </c>
       <c r="L6" s="4">
+        <v>16</v>
+      </c>
+      <c r="M6" s="4">
         <v>11</v>
-      </c>
-      <c r="M6" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,10 +876,10 @@
         <v>1.26</v>
       </c>
       <c r="L7" s="4">
+        <v>16</v>
+      </c>
+      <c r="M7" s="4">
         <v>11</v>
-      </c>
-      <c r="M7" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -917,10 +917,10 @@
         <v>1.26</v>
       </c>
       <c r="L8" s="4">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4">
         <v>11</v>
-      </c>
-      <c r="M8" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -958,10 +958,10 @@
         <v>1.26</v>
       </c>
       <c r="L9" s="4">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4">
         <v>11</v>
-      </c>
-      <c r="M9" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -999,10 +999,10 @@
         <v>1.26</v>
       </c>
       <c r="L10" s="4">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4">
         <v>11</v>
-      </c>
-      <c r="M10" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1040,10 +1040,10 @@
         <v>1.26</v>
       </c>
       <c r="L11" s="4">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4">
         <v>11</v>
-      </c>
-      <c r="M11" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
